--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_13_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_13_genetic_schedule.xlsx
@@ -518,102 +518,216 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>IT 402 - Advanced Programming
+3A
+Room 115</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>AC 428 - Advanced Calculus
+3D
+Room 223</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>MT 414 - Manufacturing
+3B
+Room 188</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>PH 200 - Physics Advanced
 2D
 Room 158</t>
         </is>
       </c>
-    </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="F15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>ME 314 - Mechanics
 2B
-Room 144</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>IT 402 - Advanced Programming
-3A
-Room 115</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
+Room 231</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>MT 414 - Manufacturing
+3B
+Room 209</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>IT 402 - Advanced Programming
 3A
@@ -621,123 +735,6 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>MT 414 - Manufacturing
-3B
-Room 188</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>ME 314 - Mechanics
-2B
-Room 231</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>MT 414 - Manufacturing
-3B
-Room 209</t>
-        </is>
-      </c>
-    </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
         <is>
@@ -745,6 +742,7 @@
         </is>
       </c>
       <c r="B25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -753,6 +751,7 @@
         </is>
       </c>
       <c r="B26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -762,15 +761,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F12:F14"/>
+  <mergeCells count="7">
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B13:B15"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B3:B7"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
